--- a/biology/Zoologie/Cisticola/Cisticola.xlsx
+++ b/biology/Zoologie/Cisticola/Cisticola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cisticola est un genre de petits passereaux à l'allure de fauvettes. Il comprend 51 espèces.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des oiseaux endémiques de l'Afrique tropicale à l'exception de 2 espèces : la Cisticole à couronne dorée (Cisticola exilis) dont l'aire de répartition s'étend de l'Inde au nord de l'Australie et la Cisticole des joncs (Cisticola juncidis), espèce nicheuse en France, dont l'aire s'étend de l'Europe occidentale à l'Afrique tropicale et jusqu'à l'Indonésie.
 </t>
@@ -542,7 +556,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">D'après la classification de référence (version 5.2, 2015) du Congrès ornithologique international (ordre phylogénique) :
 Cisticola erythrops – Cisticole à face rousse
